--- a/Model/Old Model Versions/2014_05_02/added reactions-21 reactions.xlsx
+++ b/Model/Old Model Versions/2014_05_02/added reactions-21 reactions.xlsx
@@ -118,10 +118,6 @@
   </si>
   <si>
     <t>mmp1527</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mmp0080,mmp008,mmp0082,mmp0496</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -244,6 +240,9 @@
   <si>
     <t>PNAS,104(21):8930-8934</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mmp0080,mmp0081,mmp0082,mmp0496</t>
   </si>
 </sst>
 </file>
@@ -635,14 +634,14 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="26.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="93.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -696,7 +695,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>28</v>
@@ -704,13 +703,13 @@
     </row>
     <row r="5" spans="1:4" ht="15.6">
       <c r="A5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>28</v>
@@ -718,13 +717,13 @@
     </row>
     <row r="6" spans="1:4" ht="15.6">
       <c r="A6" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>28</v>
@@ -732,13 +731,13 @@
     </row>
     <row r="7" spans="1:4" ht="15.6">
       <c r="A7" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>28</v>
@@ -746,13 +745,13 @@
     </row>
     <row r="8" spans="1:4" ht="15.6">
       <c r="A8" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>28</v>
@@ -760,13 +759,13 @@
     </row>
     <row r="9" spans="1:4" ht="15.6">
       <c r="A9" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>28</v>
@@ -774,13 +773,13 @@
     </row>
     <row r="10" spans="1:4" ht="15.6">
       <c r="A10" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>28</v>
@@ -788,13 +787,13 @@
     </row>
     <row r="11" spans="1:4" ht="15.6">
       <c r="A11" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>28</v>
@@ -802,13 +801,13 @@
     </row>
     <row r="12" spans="1:4" ht="15.6">
       <c r="A12" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>28</v>
@@ -816,13 +815,13 @@
     </row>
     <row r="13" spans="1:4" ht="15.6">
       <c r="A13" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>28</v>
@@ -830,7 +829,7 @@
     </row>
     <row r="14" spans="1:4" ht="15.6">
       <c r="A14" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>17</v>
@@ -844,7 +843,7 @@
     </row>
     <row r="15" spans="1:4" ht="15.6">
       <c r="A15" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>19</v>
@@ -858,7 +857,7 @@
     </row>
     <row r="16" spans="1:4" ht="15.6">
       <c r="A16" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>20</v>
@@ -872,13 +871,13 @@
     </row>
     <row r="17" spans="1:4" ht="15.6">
       <c r="A17" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>28</v>
@@ -886,10 +885,10 @@
     </row>
     <row r="18" spans="1:4" ht="15.6">
       <c r="A18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>13</v>
@@ -900,7 +899,7 @@
     </row>
     <row r="19" spans="1:4" ht="15.6">
       <c r="A19" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>23</v>
@@ -914,7 +913,7 @@
     </row>
     <row r="20" spans="1:4" ht="15.6">
       <c r="A20" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>24</v>
@@ -928,7 +927,7 @@
     </row>
     <row r="21" spans="1:4" ht="15.6">
       <c r="A21" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>22</v>
@@ -945,13 +944,13 @@
         <v>27</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="D22" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
